--- a/분석_설계/01_2차 프로젝트_일정관리.xlsx
+++ b/분석_설계/01_2차 프로젝트_일정관리.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\team_project\02_lotto_board\gitFiles\lotto_board_project\분석_설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A4FA99-6802-44EA-BB80-D8B5C7E40ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260581AE-D6B8-4A1B-AC43-1CC9A9072F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -689,6 +689,7 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -1216,51 +1217,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1279,18 +1235,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1302,9 +1246,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1346,15 +1287,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1406,6 +1338,75 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1627,7 +1628,7 @@
   <dimension ref="A1:AK1008"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1677,25 +1678,25 @@
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="16"/>
+      <c r="D2" s="62"/>
       <c r="E2" s="2"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="16"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="62"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
@@ -1713,25 +1714,25 @@
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="65">
         <v>45399</v>
       </c>
-      <c r="D3" s="16"/>
+      <c r="D3" s="62"/>
       <c r="E3" s="2"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="16"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="62"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
@@ -1749,25 +1750,25 @@
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="65">
         <v>45428</v>
       </c>
-      <c r="D4" s="16"/>
+      <c r="D4" s="62"/>
       <c r="E4" s="2"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="16"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="64"/>
+      <c r="Q4" s="62"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
@@ -1785,10 +1786,10 @@
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="16"/>
+      <c r="D5" s="62"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -1819,10 +1820,10 @@
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="65">
         <v>45398</v>
       </c>
-      <c r="D6" s="16"/>
+      <c r="D6" s="62"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -1853,27 +1854,27 @@
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="16"/>
+      <c r="D7" s="62"/>
       <c r="E7" s="2"/>
       <c r="F7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="16"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="64"/>
+      <c r="P7" s="64"/>
+      <c r="Q7" s="62"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
@@ -1948,233 +1949,233 @@
     </row>
     <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="35" t="s">
+      <c r="G10" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="44" t="s">
+      <c r="H10" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="36" t="s">
+      <c r="I10" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
-      <c r="S10" s="36"/>
-      <c r="T10" s="36"/>
-      <c r="U10" s="36"/>
-      <c r="V10" s="36"/>
-      <c r="W10" s="36"/>
-      <c r="X10" s="36"/>
-      <c r="Y10" s="36"/>
-      <c r="Z10" s="36"/>
-      <c r="AA10" s="36"/>
-      <c r="AB10" s="36"/>
-      <c r="AC10" s="36"/>
-      <c r="AD10" s="36"/>
-      <c r="AE10" s="36"/>
-      <c r="AF10" s="36"/>
-      <c r="AG10" s="36"/>
-      <c r="AH10" s="36"/>
-      <c r="AI10" s="36"/>
-      <c r="AJ10" s="36"/>
-      <c r="AK10" s="36"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="60"/>
+      <c r="P10" s="60"/>
+      <c r="Q10" s="60"/>
+      <c r="R10" s="60"/>
+      <c r="S10" s="60"/>
+      <c r="T10" s="60"/>
+      <c r="U10" s="60"/>
+      <c r="V10" s="60"/>
+      <c r="W10" s="60"/>
+      <c r="X10" s="60"/>
+      <c r="Y10" s="60"/>
+      <c r="Z10" s="60"/>
+      <c r="AA10" s="60"/>
+      <c r="AB10" s="60"/>
+      <c r="AC10" s="60"/>
+      <c r="AD10" s="60"/>
+      <c r="AE10" s="60"/>
+      <c r="AF10" s="60"/>
+      <c r="AG10" s="60"/>
+      <c r="AH10" s="60"/>
+      <c r="AI10" s="60"/>
+      <c r="AJ10" s="60"/>
+      <c r="AK10" s="60"/>
     </row>
     <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="44" t="s">
+      <c r="B11" s="75"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="38" t="s">
+      <c r="I11" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38" t="s">
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="38"/>
-      <c r="R11" s="38"/>
-      <c r="S11" s="38" t="s">
+      <c r="O11" s="58"/>
+      <c r="P11" s="58"/>
+      <c r="Q11" s="58"/>
+      <c r="R11" s="58"/>
+      <c r="S11" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="T11" s="38"/>
-      <c r="U11" s="38"/>
-      <c r="V11" s="38"/>
-      <c r="W11" s="38"/>
-      <c r="X11" s="38" t="s">
+      <c r="T11" s="58"/>
+      <c r="U11" s="58"/>
+      <c r="V11" s="58"/>
+      <c r="W11" s="58"/>
+      <c r="X11" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="Y11" s="38"/>
-      <c r="Z11" s="38"/>
-      <c r="AA11" s="38"/>
-      <c r="AB11" s="38"/>
-      <c r="AC11" s="38" t="s">
+      <c r="Y11" s="58"/>
+      <c r="Z11" s="58"/>
+      <c r="AA11" s="58"/>
+      <c r="AB11" s="58"/>
+      <c r="AC11" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="AD11" s="38"/>
-      <c r="AE11" s="38"/>
-      <c r="AF11" s="38"/>
-      <c r="AG11" s="38"/>
-      <c r="AH11" s="43" t="s">
+      <c r="AD11" s="58"/>
+      <c r="AE11" s="58"/>
+      <c r="AF11" s="58"/>
+      <c r="AG11" s="58"/>
+      <c r="AH11" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="AI11" s="43"/>
-      <c r="AJ11" s="43"/>
-      <c r="AK11" s="43"/>
+      <c r="AI11" s="59"/>
+      <c r="AJ11" s="59"/>
+      <c r="AK11" s="59"/>
     </row>
     <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="44" t="s">
+      <c r="B12" s="76"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="39">
+      <c r="I12" s="20">
         <v>20</v>
       </c>
-      <c r="J12" s="39">
+      <c r="J12" s="20">
         <v>21</v>
       </c>
-      <c r="K12" s="39">
+      <c r="K12" s="20">
         <v>22</v>
       </c>
-      <c r="L12" s="39">
+      <c r="L12" s="20">
         <v>23</v>
       </c>
-      <c r="M12" s="39">
+      <c r="M12" s="20">
         <v>24</v>
       </c>
-      <c r="N12" s="39">
+      <c r="N12" s="20">
         <v>27</v>
       </c>
-      <c r="O12" s="39">
+      <c r="O12" s="20">
         <v>28</v>
       </c>
-      <c r="P12" s="39">
+      <c r="P12" s="20">
         <v>29</v>
       </c>
-      <c r="Q12" s="39">
+      <c r="Q12" s="20">
         <v>30</v>
       </c>
-      <c r="R12" s="39">
+      <c r="R12" s="20">
         <v>31</v>
       </c>
-      <c r="S12" s="39">
+      <c r="S12" s="20">
         <v>3</v>
       </c>
-      <c r="T12" s="39">
+      <c r="T12" s="20">
         <v>4</v>
       </c>
-      <c r="U12" s="39">
+      <c r="U12" s="20">
         <v>5</v>
       </c>
-      <c r="V12" s="39">
+      <c r="V12" s="20">
         <v>6</v>
       </c>
-      <c r="W12" s="39">
+      <c r="W12" s="20">
         <v>7</v>
       </c>
-      <c r="X12" s="39">
+      <c r="X12" s="20">
         <v>10</v>
       </c>
-      <c r="Y12" s="39">
+      <c r="Y12" s="20">
         <v>11</v>
       </c>
-      <c r="Z12" s="39">
+      <c r="Z12" s="20">
         <v>12</v>
       </c>
-      <c r="AA12" s="39">
+      <c r="AA12" s="20">
         <v>13</v>
       </c>
-      <c r="AB12" s="39">
+      <c r="AB12" s="20">
         <v>14</v>
       </c>
-      <c r="AC12" s="39">
+      <c r="AC12" s="20">
         <v>17</v>
       </c>
-      <c r="AD12" s="39">
+      <c r="AD12" s="20">
         <v>18</v>
       </c>
-      <c r="AE12" s="39">
+      <c r="AE12" s="20">
         <v>19</v>
       </c>
-      <c r="AF12" s="39">
+      <c r="AF12" s="20">
         <v>20</v>
       </c>
-      <c r="AG12" s="39">
+      <c r="AG12" s="20">
         <v>21</v>
       </c>
-      <c r="AH12" s="39">
+      <c r="AH12" s="20">
         <v>24</v>
       </c>
-      <c r="AI12" s="39">
+      <c r="AI12" s="20">
         <v>25</v>
       </c>
-      <c r="AJ12" s="39">
+      <c r="AJ12" s="20">
         <v>26</v>
       </c>
-      <c r="AK12" s="39">
+      <c r="AK12" s="20">
         <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="54" t="s">
+      <c r="B13" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="57" t="s">
+      <c r="C13" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="47" t="s">
+      <c r="D13" s="27" t="s">
         <v>25</v>
       </c>
       <c r="E13" s="9"/>
-      <c r="F13" s="29">
+      <c r="F13" s="14">
         <v>1</v>
       </c>
-      <c r="G13" s="40">
+      <c r="G13" s="21">
         <v>3</v>
       </c>
-      <c r="H13" s="45"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
@@ -2192,36 +2193,36 @@
       <c r="Z13" s="10"/>
       <c r="AA13" s="10"/>
       <c r="AB13" s="10"/>
-      <c r="AC13" s="30"/>
-      <c r="AD13" s="30"/>
-      <c r="AE13" s="30"/>
-      <c r="AF13" s="30"/>
-      <c r="AG13" s="30"/>
-      <c r="AH13" s="30"/>
-      <c r="AI13" s="30"/>
-      <c r="AJ13" s="30"/>
+      <c r="AC13" s="15"/>
+      <c r="AD13" s="15"/>
+      <c r="AE13" s="15"/>
+      <c r="AF13" s="15"/>
+      <c r="AG13" s="15"/>
+      <c r="AH13" s="15"/>
+      <c r="AI13" s="15"/>
+      <c r="AJ13" s="15"/>
       <c r="AK13" s="13"/>
     </row>
     <row r="14" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="57" t="s">
+      <c r="B14" s="35"/>
+      <c r="C14" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="47" t="s">
+      <c r="D14" s="27" t="s">
         <v>26</v>
       </c>
       <c r="E14" s="9"/>
-      <c r="F14" s="29">
+      <c r="F14" s="14">
         <v>1</v>
       </c>
-      <c r="G14" s="40">
+      <c r="G14" s="21">
         <v>3</v>
       </c>
-      <c r="H14" s="45"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
@@ -2239,38 +2240,38 @@
       <c r="Z14" s="10"/>
       <c r="AA14" s="10"/>
       <c r="AB14" s="10"/>
-      <c r="AC14" s="30"/>
-      <c r="AD14" s="30"/>
-      <c r="AE14" s="30"/>
-      <c r="AF14" s="30"/>
-      <c r="AG14" s="30"/>
-      <c r="AH14" s="30"/>
-      <c r="AI14" s="30"/>
-      <c r="AJ14" s="30"/>
+      <c r="AC14" s="15"/>
+      <c r="AD14" s="15"/>
+      <c r="AE14" s="15"/>
+      <c r="AF14" s="15"/>
+      <c r="AG14" s="15"/>
+      <c r="AH14" s="15"/>
+      <c r="AI14" s="15"/>
+      <c r="AJ14" s="15"/>
       <c r="AK14" s="13"/>
     </row>
     <row r="15" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="58" t="s">
+      <c r="B15" s="35"/>
+      <c r="C15" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="47" t="s">
+      <c r="D15" s="27" t="s">
         <v>61</v>
       </c>
       <c r="E15" s="9"/>
-      <c r="F15" s="29">
+      <c r="F15" s="14">
         <v>0.3</v>
       </c>
-      <c r="G15" s="40">
+      <c r="G15" s="21">
         <v>5</v>
       </c>
-      <c r="H15" s="45"/>
-      <c r="I15" s="31"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="16"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
       <c r="P15" s="10"/>
@@ -2285,38 +2286,38 @@
       <c r="Z15" s="10"/>
       <c r="AA15" s="10"/>
       <c r="AB15" s="10"/>
-      <c r="AC15" s="30"/>
-      <c r="AD15" s="30"/>
-      <c r="AE15" s="30"/>
-      <c r="AF15" s="30"/>
-      <c r="AG15" s="30"/>
-      <c r="AH15" s="30"/>
-      <c r="AI15" s="30"/>
-      <c r="AJ15" s="30"/>
+      <c r="AC15" s="15"/>
+      <c r="AD15" s="15"/>
+      <c r="AE15" s="15"/>
+      <c r="AF15" s="15"/>
+      <c r="AG15" s="15"/>
+      <c r="AH15" s="15"/>
+      <c r="AI15" s="15"/>
+      <c r="AJ15" s="15"/>
       <c r="AK15" s="13"/>
     </row>
     <row r="16" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="63" t="s">
+      <c r="B16" s="35"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="40" t="s">
         <v>53</v>
       </c>
       <c r="E16" s="9"/>
-      <c r="F16" s="29">
+      <c r="F16" s="14">
         <v>0.5</v>
       </c>
-      <c r="G16" s="40">
+      <c r="G16" s="21">
         <v>3</v>
       </c>
-      <c r="H16" s="45"/>
-      <c r="I16" s="31"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="16"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="46"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
       <c r="P16" s="10"/>
       <c r="Q16" s="10"/>
       <c r="S16" s="10"/>
@@ -2329,38 +2330,38 @@
       <c r="Z16" s="10"/>
       <c r="AA16" s="10"/>
       <c r="AB16" s="10"/>
-      <c r="AC16" s="30"/>
-      <c r="AD16" s="30"/>
-      <c r="AE16" s="30"/>
-      <c r="AF16" s="30"/>
-      <c r="AG16" s="30"/>
-      <c r="AH16" s="30"/>
-      <c r="AI16" s="30"/>
-      <c r="AJ16" s="30"/>
+      <c r="AC16" s="15"/>
+      <c r="AD16" s="15"/>
+      <c r="AE16" s="15"/>
+      <c r="AF16" s="15"/>
+      <c r="AG16" s="15"/>
+      <c r="AH16" s="15"/>
+      <c r="AI16" s="15"/>
+      <c r="AJ16" s="15"/>
       <c r="AK16" s="13"/>
     </row>
     <row r="17" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="47" t="s">
+      <c r="B17" s="35"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="27" t="s">
         <v>50</v>
       </c>
       <c r="E17" s="9"/>
-      <c r="F17" s="29">
+      <c r="F17" s="14">
         <v>0</v>
       </c>
-      <c r="G17" s="40"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="31"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="16"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="53"/>
-      <c r="Q17" s="46"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="26"/>
       <c r="S17" s="10"/>
       <c r="T17" s="10"/>
       <c r="U17" s="10"/>
@@ -2371,39 +2372,39 @@
       <c r="Z17" s="10"/>
       <c r="AA17" s="10"/>
       <c r="AB17" s="10"/>
-      <c r="AC17" s="30"/>
-      <c r="AD17" s="30"/>
-      <c r="AE17" s="30"/>
-      <c r="AF17" s="30"/>
-      <c r="AG17" s="30"/>
-      <c r="AH17" s="30"/>
-      <c r="AI17" s="30"/>
-      <c r="AJ17" s="30"/>
+      <c r="AC17" s="15"/>
+      <c r="AD17" s="15"/>
+      <c r="AE17" s="15"/>
+      <c r="AF17" s="15"/>
+      <c r="AG17" s="15"/>
+      <c r="AH17" s="15"/>
+      <c r="AI17" s="15"/>
+      <c r="AJ17" s="15"/>
       <c r="AK17" s="13"/>
     </row>
     <row r="18" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="47" t="s">
+      <c r="B18" s="35"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="27" t="s">
         <v>60</v>
       </c>
       <c r="E18" s="9"/>
-      <c r="F18" s="29">
+      <c r="F18" s="14">
         <v>0.7</v>
       </c>
-      <c r="G18" s="40">
+      <c r="G18" s="21">
         <v>7</v>
       </c>
-      <c r="H18" s="45"/>
-      <c r="I18" s="31"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="16"/>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="46"/>
-      <c r="N18" s="46"/>
-      <c r="O18" s="46"/>
-      <c r="P18" s="46"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
       <c r="Q18" s="10"/>
       <c r="S18" s="10"/>
       <c r="T18" s="10"/>
@@ -2415,28 +2416,28 @@
       <c r="Z18" s="10"/>
       <c r="AA18" s="10"/>
       <c r="AB18" s="10"/>
-      <c r="AC18" s="30"/>
-      <c r="AD18" s="30"/>
-      <c r="AE18" s="30"/>
-      <c r="AF18" s="30"/>
-      <c r="AG18" s="30"/>
-      <c r="AH18" s="30"/>
-      <c r="AI18" s="30"/>
-      <c r="AJ18" s="30"/>
+      <c r="AC18" s="15"/>
+      <c r="AD18" s="15"/>
+      <c r="AE18" s="15"/>
+      <c r="AF18" s="15"/>
+      <c r="AG18" s="15"/>
+      <c r="AH18" s="15"/>
+      <c r="AI18" s="15"/>
+      <c r="AJ18" s="15"/>
       <c r="AK18" s="13"/>
     </row>
     <row r="19" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="47" t="s">
+      <c r="B19" s="35"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="27" t="s">
         <v>62</v>
       </c>
       <c r="E19" s="9"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="31"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="16"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
@@ -2444,9 +2445,9 @@
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
       <c r="P19" s="10"/>
-      <c r="Q19" s="46"/>
-      <c r="R19" s="77"/>
-      <c r="S19" s="46"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="54"/>
+      <c r="S19" s="26"/>
       <c r="T19" s="10"/>
       <c r="U19" s="10"/>
       <c r="V19" s="10"/>
@@ -2456,39 +2457,39 @@
       <c r="Z19" s="10"/>
       <c r="AA19" s="10"/>
       <c r="AB19" s="10"/>
-      <c r="AC19" s="30"/>
-      <c r="AD19" s="30"/>
-      <c r="AE19" s="30"/>
-      <c r="AF19" s="30"/>
-      <c r="AG19" s="30"/>
-      <c r="AH19" s="30"/>
-      <c r="AI19" s="30"/>
-      <c r="AJ19" s="30"/>
+      <c r="AC19" s="15"/>
+      <c r="AD19" s="15"/>
+      <c r="AE19" s="15"/>
+      <c r="AF19" s="15"/>
+      <c r="AG19" s="15"/>
+      <c r="AH19" s="15"/>
+      <c r="AI19" s="15"/>
+      <c r="AJ19" s="15"/>
       <c r="AK19" s="13"/>
     </row>
     <row r="20" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="47" t="s">
+      <c r="B20" s="36"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="69"/>
-      <c r="F20" s="29">
-        <v>0.5</v>
+      <c r="E20" s="46"/>
+      <c r="F20" s="14">
+        <v>0.3</v>
       </c>
-      <c r="G20" s="40">
+      <c r="G20" s="21">
         <v>1</v>
       </c>
-      <c r="H20" s="45"/>
-      <c r="I20" s="31"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="16"/>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="46"/>
-      <c r="O20" s="46"/>
-      <c r="P20" s="46"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
       <c r="Q20" s="10"/>
       <c r="S20" s="10"/>
       <c r="T20" s="10"/>
@@ -2500,36 +2501,36 @@
       <c r="Z20" s="10"/>
       <c r="AA20" s="10"/>
       <c r="AB20" s="10"/>
-      <c r="AC20" s="30"/>
-      <c r="AD20" s="30"/>
-      <c r="AE20" s="30"/>
-      <c r="AF20" s="30"/>
-      <c r="AG20" s="30"/>
-      <c r="AH20" s="30"/>
-      <c r="AI20" s="30"/>
-      <c r="AJ20" s="30"/>
+      <c r="AC20" s="15"/>
+      <c r="AD20" s="15"/>
+      <c r="AE20" s="15"/>
+      <c r="AF20" s="15"/>
+      <c r="AG20" s="15"/>
+      <c r="AH20" s="15"/>
+      <c r="AI20" s="15"/>
+      <c r="AJ20" s="15"/>
       <c r="AK20" s="13"/>
     </row>
     <row r="21" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="61" t="s">
+      <c r="C21" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="66" t="s">
+      <c r="D21" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="40"/>
-      <c r="F21" s="68">
+      <c r="E21" s="21"/>
+      <c r="F21" s="45">
         <v>0</v>
       </c>
-      <c r="G21" s="40">
+      <c r="G21" s="21">
         <v>1</v>
       </c>
-      <c r="H21" s="45"/>
-      <c r="I21" s="31"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="16"/>
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
@@ -2539,7 +2540,7 @@
       <c r="P21" s="10"/>
       <c r="Q21" s="10"/>
       <c r="S21" s="10"/>
-      <c r="T21" s="42"/>
+      <c r="T21" s="23"/>
       <c r="U21" s="10"/>
       <c r="V21" s="10"/>
       <c r="W21" s="10"/>
@@ -2548,36 +2549,36 @@
       <c r="Z21" s="10"/>
       <c r="AA21" s="10"/>
       <c r="AB21" s="10"/>
-      <c r="AC21" s="30"/>
-      <c r="AD21" s="30"/>
-      <c r="AE21" s="30"/>
-      <c r="AF21" s="30"/>
-      <c r="AG21" s="30"/>
-      <c r="AH21" s="30"/>
-      <c r="AI21" s="30"/>
-      <c r="AJ21" s="30"/>
+      <c r="AC21" s="15"/>
+      <c r="AD21" s="15"/>
+      <c r="AE21" s="15"/>
+      <c r="AF21" s="15"/>
+      <c r="AG21" s="15"/>
+      <c r="AH21" s="15"/>
+      <c r="AI21" s="15"/>
+      <c r="AJ21" s="15"/>
       <c r="AK21" s="13"/>
     </row>
     <row r="22" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="72" t="s">
+      <c r="B22" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="74" t="s">
+      <c r="C22" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="67" t="s">
+      <c r="D22" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="40"/>
-      <c r="F22" s="68">
+      <c r="E22" s="21"/>
+      <c r="F22" s="45">
         <v>0</v>
       </c>
-      <c r="G22" s="40"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="31"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="16"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
@@ -2587,38 +2588,38 @@
       <c r="P22" s="10"/>
       <c r="Q22" s="10"/>
       <c r="S22" s="10"/>
-      <c r="U22" s="53"/>
-      <c r="V22" s="53"/>
+      <c r="U22" s="33"/>
+      <c r="V22" s="33"/>
       <c r="W22" s="10"/>
       <c r="X22" s="10"/>
       <c r="Y22" s="10"/>
       <c r="Z22" s="10"/>
       <c r="AA22" s="10"/>
       <c r="AB22" s="10"/>
-      <c r="AC22" s="30"/>
-      <c r="AD22" s="30"/>
-      <c r="AE22" s="30"/>
-      <c r="AF22" s="30"/>
-      <c r="AG22" s="30"/>
-      <c r="AH22" s="30"/>
-      <c r="AI22" s="30"/>
-      <c r="AJ22" s="30"/>
+      <c r="AC22" s="15"/>
+      <c r="AD22" s="15"/>
+      <c r="AE22" s="15"/>
+      <c r="AF22" s="15"/>
+      <c r="AG22" s="15"/>
+      <c r="AH22" s="15"/>
+      <c r="AI22" s="15"/>
+      <c r="AJ22" s="15"/>
       <c r="AK22" s="13"/>
     </row>
     <row r="23" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="73"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="67" t="s">
+      <c r="B23" s="50"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="40"/>
-      <c r="F23" s="29">
+      <c r="E23" s="21"/>
+      <c r="F23" s="14">
         <v>0</v>
       </c>
-      <c r="G23" s="40"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="31"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="16"/>
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
@@ -2628,38 +2629,38 @@
       <c r="P23" s="10"/>
       <c r="Q23" s="10"/>
       <c r="S23" s="10"/>
-      <c r="U23" s="46"/>
-      <c r="V23" s="46"/>
-      <c r="W23" s="46"/>
-      <c r="X23" s="46"/>
-      <c r="Y23" s="46"/>
-      <c r="Z23" s="46"/>
-      <c r="AA23" s="46"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="26"/>
+      <c r="W23" s="26"/>
+      <c r="X23" s="26"/>
+      <c r="Y23" s="26"/>
+      <c r="Z23" s="26"/>
+      <c r="AA23" s="26"/>
       <c r="AB23" s="10"/>
-      <c r="AC23" s="30"/>
-      <c r="AD23" s="30"/>
-      <c r="AE23" s="30"/>
-      <c r="AF23" s="30"/>
-      <c r="AG23" s="30"/>
-      <c r="AH23" s="30"/>
-      <c r="AI23" s="30"/>
-      <c r="AJ23" s="30"/>
+      <c r="AC23" s="15"/>
+      <c r="AD23" s="15"/>
+      <c r="AE23" s="15"/>
+      <c r="AF23" s="15"/>
+      <c r="AG23" s="15"/>
+      <c r="AH23" s="15"/>
+      <c r="AI23" s="15"/>
+      <c r="AJ23" s="15"/>
       <c r="AK23" s="13"/>
     </row>
     <row r="24" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="73"/>
-      <c r="C24" s="75"/>
-      <c r="D24" s="62" t="s">
+      <c r="B24" s="50"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="40"/>
-      <c r="F24" s="29">
+      <c r="E24" s="21"/>
+      <c r="F24" s="14">
         <v>0</v>
       </c>
-      <c r="G24" s="40"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="31"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="16"/>
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
@@ -2669,38 +2670,38 @@
       <c r="P24" s="10"/>
       <c r="Q24" s="10"/>
       <c r="S24" s="10"/>
-      <c r="U24" s="46"/>
-      <c r="V24" s="46"/>
-      <c r="W24" s="46"/>
+      <c r="U24" s="26"/>
+      <c r="V24" s="26"/>
+      <c r="W24" s="26"/>
       <c r="X24" s="10"/>
       <c r="Y24" s="10"/>
       <c r="Z24" s="10"/>
       <c r="AA24" s="10"/>
       <c r="AB24" s="10"/>
-      <c r="AC24" s="30"/>
-      <c r="AD24" s="30"/>
-      <c r="AE24" s="30"/>
-      <c r="AF24" s="30"/>
-      <c r="AG24" s="30"/>
-      <c r="AH24" s="30"/>
-      <c r="AI24" s="30"/>
-      <c r="AJ24" s="30"/>
+      <c r="AC24" s="15"/>
+      <c r="AD24" s="15"/>
+      <c r="AE24" s="15"/>
+      <c r="AF24" s="15"/>
+      <c r="AG24" s="15"/>
+      <c r="AH24" s="15"/>
+      <c r="AI24" s="15"/>
+      <c r="AJ24" s="15"/>
       <c r="AK24" s="13"/>
     </row>
     <row r="25" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="73"/>
-      <c r="C25" s="75"/>
-      <c r="D25" s="67" t="s">
+      <c r="B25" s="50"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="E25" s="40"/>
-      <c r="F25" s="29">
+      <c r="E25" s="21"/>
+      <c r="F25" s="14">
         <v>0</v>
       </c>
-      <c r="G25" s="40"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="31"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="16"/>
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
@@ -2713,35 +2714,35 @@
       <c r="U25" s="10"/>
       <c r="V25" s="10"/>
       <c r="W25" s="10"/>
-      <c r="X25" s="46"/>
-      <c r="Y25" s="46"/>
-      <c r="Z25" s="46"/>
+      <c r="X25" s="26"/>
+      <c r="Y25" s="26"/>
+      <c r="Z25" s="26"/>
       <c r="AA25" s="10"/>
       <c r="AB25" s="10"/>
-      <c r="AC25" s="30"/>
-      <c r="AD25" s="30"/>
-      <c r="AE25" s="30"/>
-      <c r="AF25" s="30"/>
-      <c r="AG25" s="30"/>
-      <c r="AH25" s="30"/>
-      <c r="AI25" s="30"/>
-      <c r="AJ25" s="30"/>
+      <c r="AC25" s="15"/>
+      <c r="AD25" s="15"/>
+      <c r="AE25" s="15"/>
+      <c r="AF25" s="15"/>
+      <c r="AG25" s="15"/>
+      <c r="AH25" s="15"/>
+      <c r="AI25" s="15"/>
+      <c r="AJ25" s="15"/>
       <c r="AK25" s="13"/>
     </row>
     <row r="26" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="73"/>
-      <c r="C26" s="75"/>
-      <c r="D26" s="67" t="s">
+      <c r="B26" s="50"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="E26" s="40"/>
-      <c r="F26" s="29">
+      <c r="E26" s="21"/>
+      <c r="F26" s="14">
         <v>0</v>
       </c>
-      <c r="G26" s="40"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="31"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="16"/>
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
@@ -2757,32 +2758,32 @@
       <c r="X26" s="10"/>
       <c r="Y26" s="10"/>
       <c r="Z26" s="10"/>
-      <c r="AA26" s="46"/>
+      <c r="AA26" s="26"/>
       <c r="AB26" s="10"/>
-      <c r="AC26" s="30"/>
-      <c r="AD26" s="30"/>
-      <c r="AE26" s="30"/>
-      <c r="AF26" s="30"/>
-      <c r="AG26" s="30"/>
-      <c r="AH26" s="30"/>
-      <c r="AI26" s="30"/>
-      <c r="AJ26" s="30"/>
+      <c r="AC26" s="15"/>
+      <c r="AD26" s="15"/>
+      <c r="AE26" s="15"/>
+      <c r="AF26" s="15"/>
+      <c r="AG26" s="15"/>
+      <c r="AH26" s="15"/>
+      <c r="AI26" s="15"/>
+      <c r="AJ26" s="15"/>
       <c r="AK26" s="13"/>
     </row>
     <row r="27" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="73"/>
-      <c r="C27" s="75"/>
-      <c r="D27" s="67" t="s">
+      <c r="B27" s="50"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="E27" s="40"/>
-      <c r="F27" s="29">
+      <c r="E27" s="21"/>
+      <c r="F27" s="14">
         <v>0</v>
       </c>
-      <c r="G27" s="40"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="31"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="16"/>
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
@@ -2798,32 +2799,32 @@
       <c r="X27" s="10"/>
       <c r="Y27" s="10"/>
       <c r="Z27" s="10"/>
-      <c r="AA27" s="46"/>
+      <c r="AA27" s="26"/>
       <c r="AB27" s="10"/>
-      <c r="AC27" s="30"/>
-      <c r="AD27" s="30"/>
-      <c r="AE27" s="30"/>
-      <c r="AF27" s="30"/>
-      <c r="AG27" s="30"/>
-      <c r="AH27" s="30"/>
-      <c r="AI27" s="30"/>
-      <c r="AJ27" s="30"/>
+      <c r="AC27" s="15"/>
+      <c r="AD27" s="15"/>
+      <c r="AE27" s="15"/>
+      <c r="AF27" s="15"/>
+      <c r="AG27" s="15"/>
+      <c r="AH27" s="15"/>
+      <c r="AI27" s="15"/>
+      <c r="AJ27" s="15"/>
       <c r="AK27" s="13"/>
     </row>
     <row r="28" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="73"/>
-      <c r="C28" s="75"/>
-      <c r="D28" s="67" t="s">
+      <c r="B28" s="50"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="E28" s="40"/>
-      <c r="F28" s="29">
+      <c r="E28" s="21"/>
+      <c r="F28" s="14">
         <v>0</v>
       </c>
-      <c r="G28" s="40"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="31"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="16"/>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
       <c r="L28" s="10"/>
@@ -2840,31 +2841,31 @@
       <c r="Y28" s="10"/>
       <c r="Z28" s="10"/>
       <c r="AA28" s="10"/>
-      <c r="AB28" s="46"/>
-      <c r="AC28" s="46"/>
-      <c r="AD28" s="30"/>
-      <c r="AE28" s="30"/>
-      <c r="AF28" s="30"/>
-      <c r="AG28" s="30"/>
-      <c r="AH28" s="30"/>
-      <c r="AI28" s="30"/>
-      <c r="AJ28" s="30"/>
+      <c r="AB28" s="26"/>
+      <c r="AC28" s="26"/>
+      <c r="AD28" s="15"/>
+      <c r="AE28" s="15"/>
+      <c r="AF28" s="15"/>
+      <c r="AG28" s="15"/>
+      <c r="AH28" s="15"/>
+      <c r="AI28" s="15"/>
+      <c r="AJ28" s="15"/>
       <c r="AK28" s="13"/>
     </row>
     <row r="29" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="73"/>
-      <c r="C29" s="75"/>
-      <c r="D29" s="65" t="s">
+      <c r="B29" s="50"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="E29" s="40"/>
-      <c r="F29" s="29">
+      <c r="E29" s="21"/>
+      <c r="F29" s="14">
         <v>0</v>
       </c>
-      <c r="G29" s="40"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="31"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="16"/>
       <c r="J29" s="10"/>
       <c r="K29" s="10"/>
       <c r="L29" s="10"/>
@@ -2874,38 +2875,38 @@
       <c r="P29" s="10"/>
       <c r="Q29" s="10"/>
       <c r="S29" s="10"/>
-      <c r="U29" s="46"/>
-      <c r="V29" s="46"/>
-      <c r="W29" s="46"/>
+      <c r="U29" s="26"/>
+      <c r="V29" s="26"/>
+      <c r="W29" s="26"/>
       <c r="X29" s="10"/>
       <c r="Y29" s="10"/>
       <c r="Z29" s="10"/>
       <c r="AA29" s="10"/>
       <c r="AB29" s="10"/>
-      <c r="AC29" s="30"/>
-      <c r="AD29" s="30"/>
-      <c r="AE29" s="30"/>
-      <c r="AF29" s="30"/>
-      <c r="AG29" s="30"/>
-      <c r="AH29" s="30"/>
-      <c r="AI29" s="30"/>
-      <c r="AJ29" s="30"/>
+      <c r="AC29" s="15"/>
+      <c r="AD29" s="15"/>
+      <c r="AE29" s="15"/>
+      <c r="AF29" s="15"/>
+      <c r="AG29" s="15"/>
+      <c r="AH29" s="15"/>
+      <c r="AI29" s="15"/>
+      <c r="AJ29" s="15"/>
       <c r="AK29" s="13"/>
     </row>
     <row r="30" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="73"/>
-      <c r="C30" s="76"/>
-      <c r="D30" s="65" t="s">
+      <c r="B30" s="50"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="E30" s="64"/>
-      <c r="F30" s="29">
+      <c r="E30" s="41"/>
+      <c r="F30" s="14">
         <v>0</v>
       </c>
-      <c r="G30" s="40"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="31"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="16"/>
       <c r="J30" s="10"/>
       <c r="K30" s="10"/>
       <c r="L30" s="10"/>
@@ -2924,36 +2925,36 @@
       <c r="Z30" s="10"/>
       <c r="AA30" s="10"/>
       <c r="AB30" s="10"/>
-      <c r="AC30" s="30"/>
-      <c r="AD30" s="46"/>
-      <c r="AE30" s="46"/>
-      <c r="AF30" s="46"/>
-      <c r="AG30" s="30"/>
-      <c r="AH30" s="30"/>
-      <c r="AI30" s="30"/>
-      <c r="AJ30" s="30"/>
+      <c r="AC30" s="15"/>
+      <c r="AD30" s="26"/>
+      <c r="AE30" s="26"/>
+      <c r="AF30" s="26"/>
+      <c r="AG30" s="15"/>
+      <c r="AH30" s="15"/>
+      <c r="AI30" s="15"/>
+      <c r="AJ30" s="15"/>
       <c r="AK30" s="13"/>
     </row>
     <row r="31" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="49" t="s">
+      <c r="B31" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="57" t="s">
+      <c r="C31" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="47" t="s">
+      <c r="D31" s="27" t="s">
         <v>36</v>
       </c>
       <c r="E31" s="9"/>
-      <c r="F31" s="29">
+      <c r="F31" s="14">
         <v>0</v>
       </c>
-      <c r="G31" s="40">
+      <c r="G31" s="21">
         <v>1</v>
       </c>
-      <c r="H31" s="45"/>
-      <c r="I31" s="31"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="16"/>
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
       <c r="L31" s="10"/>
@@ -2972,37 +2973,37 @@
       <c r="Y31" s="10"/>
       <c r="Z31" s="10"/>
       <c r="AA31" s="10"/>
-      <c r="AB31" s="30"/>
-      <c r="AC31" s="30"/>
-      <c r="AD31" s="30"/>
-      <c r="AE31" s="30"/>
-      <c r="AF31" s="30"/>
-      <c r="AG31" s="30"/>
-      <c r="AH31" s="30"/>
-      <c r="AI31" s="30"/>
-      <c r="AJ31" s="30"/>
+      <c r="AB31" s="15"/>
+      <c r="AC31" s="15"/>
+      <c r="AD31" s="15"/>
+      <c r="AE31" s="15"/>
+      <c r="AF31" s="15"/>
+      <c r="AG31" s="15"/>
+      <c r="AH31" s="15"/>
+      <c r="AI31" s="15"/>
+      <c r="AJ31" s="15"/>
       <c r="AK31" s="13"/>
     </row>
     <row r="32" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="50" t="s">
+      <c r="B32" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="70" t="s">
+      <c r="C32" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="47" t="s">
+      <c r="D32" s="27" t="s">
         <v>43</v>
       </c>
       <c r="E32" s="9"/>
-      <c r="F32" s="29">
+      <c r="F32" s="14">
         <v>0</v>
       </c>
-      <c r="G32" s="40">
+      <c r="G32" s="21">
         <v>1</v>
       </c>
-      <c r="H32" s="45"/>
-      <c r="I32" s="31"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="16"/>
       <c r="J32" s="10"/>
       <c r="K32" s="10"/>
       <c r="L32" s="10"/>
@@ -3025,59 +3026,59 @@
       <c r="AC32" s="10"/>
       <c r="AD32" s="10"/>
       <c r="AE32" s="10"/>
-      <c r="AF32" s="30"/>
+      <c r="AF32" s="15"/>
       <c r="AG32" s="11"/>
       <c r="AH32" s="11"/>
       <c r="AI32" s="11"/>
-      <c r="AJ32" s="30"/>
+      <c r="AJ32" s="15"/>
       <c r="AK32" s="13"/>
     </row>
     <row r="33" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="51" t="s">
+      <c r="B33" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="71" t="s">
+      <c r="C33" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="52" t="s">
+      <c r="D33" s="32" t="s">
         <v>44</v>
       </c>
       <c r="E33" s="9"/>
-      <c r="F33" s="29">
+      <c r="F33" s="14">
         <v>0</v>
       </c>
-      <c r="G33" s="40">
+      <c r="G33" s="21">
         <v>1</v>
       </c>
-      <c r="H33" s="45"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="33"/>
-      <c r="N33" s="33"/>
-      <c r="O33" s="33"/>
-      <c r="P33" s="33"/>
-      <c r="Q33" s="33"/>
-      <c r="R33" s="33"/>
-      <c r="S33" s="33"/>
-      <c r="T33" s="33"/>
-      <c r="U33" s="33"/>
-      <c r="V33" s="33"/>
-      <c r="W33" s="33"/>
-      <c r="X33" s="33"/>
-      <c r="Y33" s="33"/>
-      <c r="Z33" s="33"/>
-      <c r="AA33" s="33"/>
-      <c r="AB33" s="34"/>
-      <c r="AC33" s="34"/>
-      <c r="AD33" s="34"/>
-      <c r="AE33" s="34"/>
-      <c r="AF33" s="34"/>
-      <c r="AG33" s="34"/>
-      <c r="AH33" s="34"/>
-      <c r="AI33" s="34"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="18"/>
+      <c r="S33" s="18"/>
+      <c r="T33" s="18"/>
+      <c r="U33" s="18"/>
+      <c r="V33" s="18"/>
+      <c r="W33" s="18"/>
+      <c r="X33" s="18"/>
+      <c r="Y33" s="18"/>
+      <c r="Z33" s="18"/>
+      <c r="AA33" s="18"/>
+      <c r="AB33" s="19"/>
+      <c r="AC33" s="19"/>
+      <c r="AD33" s="19"/>
+      <c r="AE33" s="19"/>
+      <c r="AF33" s="19"/>
+      <c r="AG33" s="19"/>
+      <c r="AH33" s="19"/>
+      <c r="AI33" s="19"/>
       <c r="AJ33" s="12"/>
       <c r="AK33" s="12"/>
     </row>
@@ -32333,6 +32334,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="X11:AB11"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="G7:Q7"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
     <mergeCell ref="C15:C20"/>
     <mergeCell ref="AC11:AG11"/>
     <mergeCell ref="AH11:AK11"/>
@@ -32349,14 +32358,6 @@
     <mergeCell ref="I11:M11"/>
     <mergeCell ref="N11:R11"/>
     <mergeCell ref="S11:W11"/>
-    <mergeCell ref="X11:AB11"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="G7:Q7"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
